--- a/CVS_POS간트차트.xlsx
+++ b/CVS_POS간트차트.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba4a817038508376/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="0757DAF994C044988FFFCBBFAF7FC696F98AA97C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{502B84AD-9B5F-493D-B7B3-8B88F95DA69F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14052"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 플래너" sheetId="1" r:id="rId1"/>
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -551,6 +552,9 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -599,145 +603,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% 완료" xfId="16"/>
-    <cellStyle name="% 완료(계획을 넘어서는) 범례" xfId="18"/>
-    <cellStyle name="기간 값" xfId="13"/>
-    <cellStyle name="기간 강조 표시 제어" xfId="7"/>
-    <cellStyle name="기간 머리글" xfId="3"/>
-    <cellStyle name="기간 범례" xfId="14"/>
-    <cellStyle name="레이블" xfId="5"/>
+    <cellStyle name="% 완료" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="% 완료(계획을 넘어서는) 범례" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="기간 값" xfId="13" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="기간 강조 표시 제어" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="기간 머리글" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="기간 범례" xfId="14" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="레이블" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="설명 텍스트" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="실제 범례" xfId="15"/>
-    <cellStyle name="실제(계획을 넘어서는) 범례" xfId="17"/>
-    <cellStyle name="완료율" xfId="6"/>
+    <cellStyle name="실제 범례" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="실제(계획을 넘어서는) 범례" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="완료율" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="제목" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="제목 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="제목 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="제목 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="제목 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="프로젝트 머리글" xfId="4"/>
-    <cellStyle name="활동" xfId="2"/>
+    <cellStyle name="프로젝트 머리글" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="활동" xfId="2" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -1232,7 +1120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1240,7 +1128,7 @@
   <dimension ref="B1:BO12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1325,11 +1213,11 @@
       <c r="BO1" s="12"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
@@ -1338,48 +1226,48 @@
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="35"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="36"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="38"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="41"/>
       <c r="AH2" s="19"/>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
       <c r="AQ2" s="12"/>
       <c r="AR2" s="12"/>
       <c r="AS2" s="12"/>
@@ -1407,22 +1295,22 @@
       <c r="BO2" s="12"/>
     </row>
     <row r="3" spans="2:67" s="4" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="33" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1489,12 +1377,12 @@
       <c r="BO3" s="23"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="24">
         <v>1</v>
       </c>
@@ -1629,14 +1517,14 @@
       <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="25">
         <v>2</v>
       </c>
       <c r="E5" s="6">
         <v>2</v>
       </c>
       <c r="F5" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
@@ -1716,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -1796,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -2259,38 +2147,38 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H5:BO5 H7:BO12">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>완료율</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>실제</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>계획</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:BO13">
-    <cfRule type="expression" dxfId="17" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2321,24 +2209,24 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트 플래너는 간격에 대한 기간을 사용합니다. 시작=1은 기간 1이고 기간=5는 프로젝트가 시작 기간부터 시작해서 5개의 기간 동안 진행됨을 의미합니다. B5에서 시작하는 날짜를 입력하여 차트를 업데이트합니다." sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1에서 60까지 범위의 값을 입력하고 목록에서 기간을 선택한 후 취소를 누르고 ALT+아래쪽 화살표를 누른 후 Enter 키를 눌러 값을 선택합니다." prompt="1에서 60까지 범위의 기간을 입력하거나 목록에서 기간을 선택합니다. Alt+아래쪽 화살표를 눌러 목록을 찾은 다음 Enter 키를 눌러 값을 선택합니다." sqref="H2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트 플래너는 간격에 대한 기간을 사용합니다. 시작=1은 기간 1이고 기간=5는 프로젝트가 시작 기간부터 시작해서 5개의 기간 동안 진행됨을 의미합니다. B5에서 시작하는 날짜를 입력하여 차트를 업데이트합니다." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1에서 60까지 범위의 값을 입력하고 목록에서 기간을 선택한 후 취소를 누르고 ALT+아래쪽 화살표를 누른 후 Enter 키를 눌러 값을 선택합니다." prompt="1에서 60까지 범위의 기간을 입력하거나 목록에서 기간을 선택합니다. Alt+아래쪽 화살표를 눌러 목록을 찾은 다음 Enter 키를 눌러 값을 선택합니다." sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획 기간을 나타냅니다." sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 실제 기간을 나타냅니다." sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 완료된 프로젝트의 백분율을 나타냅니다." sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서는 실제 기간을 나타냅니다." sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서 완료된 프로젝트의 백분율을 나타냅니다." sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="기간은 H4 셀에서 BO4 셀까지 1~60으로 차트화되어 있습니다. " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 B5부터 시작하여 B 열에 활동을 입력합니다._x000a_" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 C5부터 시작하여 C 열에 계획 시작 기간을 입력합니다." sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 D5부터 시작하여 D 열에 계획 기간을 입력합니다." sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 E5부터 시작하여 E 열에 실제 시작 기간을 입력합니다." sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 F5부터 시작하여 F 열에 실제 기간을 입력합니다." sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="G5 셀부터 시작하여 G 열에 완료된 프로젝트의 백분율을 입력합니다." sqref="G3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트의 제목입니다. 이 셀에 새 제목을 입력합니다. H2 셀에서 기간을 강조 표시합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="H2 셀에서 강조 표시할 기간을 선택합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획 기간을 나타냅니다." sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 실제 기간을 나타냅니다." sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 완료된 프로젝트의 백분율을 나타냅니다." sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서는 실제 기간을 나타냅니다." sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서 완료된 프로젝트의 백분율을 나타냅니다." sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="기간은 H4 셀에서 BO4 셀까지 1~60으로 차트화되어 있습니다. " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 B5부터 시작하여 B 열에 활동을 입력합니다._x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 C5부터 시작하여 C 열에 계획 시작 기간을 입력합니다." sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 D5부터 시작하여 D 열에 계획 기간을 입력합니다." sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 E5부터 시작하여 E 열에 실제 시작 기간을 입력합니다." sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 F5부터 시작하여 F 열에 실제 기간을 입력합니다." sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="G5 셀부터 시작하여 G 열에 완료된 프로젝트의 백분율을 입력합니다." sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트의 제목입니다. 이 셀에 새 제목을 입력합니다. H2 셀에서 기간을 강조 표시합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="H2 셀에서 강조 표시할 기간을 선택합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/CVS_POS간트차트.xlsx
+++ b/CVS_POS간트차트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba4a817038508376/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\news2\OneDrive\문서\CVS_POS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="0757DAF994C044988FFFCBBFAF7FC696F98AA97C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{502B84AD-9B5F-493D-B7B3-8B88F95DA69F}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="0757DAF994C044988FFFCBBFAF7FC696F98AA97C" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{B09F3B74-0C3A-480D-B1E5-F3851CCB20E0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 플래너" sheetId="1" r:id="rId1"/>
@@ -1128,21 +1128,21 @@
   <dimension ref="B1:BO12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="31" style="2" customWidth="1"/>
-    <col min="3" max="6" width="15.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.8984375" style="1" customWidth="1"/>
-    <col min="9" max="27" width="3.09765625" style="1" customWidth="1"/>
-    <col min="28" max="67" width="3.09765625" customWidth="1"/>
+    <col min="3" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.875" style="1" customWidth="1"/>
+    <col min="9" max="27" width="3.125" style="1" customWidth="1"/>
+    <col min="28" max="67" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1">
       <c r="B1" s="9" t="s">
         <v>12</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="BN1" s="12"/>
       <c r="BO1" s="12"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -1294,7 +1294,7 @@
       <c r="BN2" s="12"/>
       <c r="BO2" s="12"/>
     </row>
-    <row r="3" spans="2:67" s="4" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:67" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="BN3" s="23"/>
       <c r="BO3" s="23"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -1510,7 +1510,7 @@
       <c r="BN4" s="24"/>
       <c r="BO4" s="24"/>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
@@ -1590,7 +1590,7 @@
       <c r="BN5" s="12"/>
       <c r="BO5" s="12"/>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -1670,7 +1670,7 @@
       <c r="BN6" s="12"/>
       <c r="BO6" s="12"/>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -1750,7 +1750,7 @@
       <c r="BN7" s="12"/>
       <c r="BO7" s="12"/>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -1826,7 +1826,7 @@
       <c r="BN8" s="12"/>
       <c r="BO8" s="12"/>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1836,10 +1836,14 @@
       <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="6">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
       <c r="G9" s="8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -1902,7 +1906,7 @@
       <c r="BN9" s="12"/>
       <c r="BO9" s="12"/>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1915,7 +1919,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -1978,7 +1982,7 @@
       <c r="BN10" s="12"/>
       <c r="BO10" s="12"/>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1991,7 +1995,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -2054,7 +2058,7 @@
       <c r="BN11" s="12"/>
       <c r="BO11" s="12"/>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
@@ -2067,7 +2071,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
